--- a/all_data/Gold.xlsx
+++ b/all_data/Gold.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\CS114.O11.KHCL-21521014\all_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EC7232C6-6B91-444C-823B-8255E80255AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32E7AAE-7A2F-4C0C-8EE8-302C0D5BA199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="csv" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="120">
   <si>
     <t>1344.0</t>
   </si>
@@ -378,11 +378,14 @@
   <si>
     <t>Date</t>
   </si>
+  <si>
+    <t>1204.75</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1236,11 +1239,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3453"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3454"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3316" workbookViewId="0">
-      <selection activeCell="M3337" sqref="M3337"/>
+    <sheetView tabSelected="1" topLeftCell="A3442" workbookViewId="0">
+      <selection activeCell="B3454" sqref="B3454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -28873,6 +28876,14 @@
         <v>116</v>
       </c>
     </row>
+    <row r="3454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3454" s="1">
+        <v>40377</v>
+      </c>
+      <c r="B3454" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A3336">
     <sortCondition descending="1" ref="A1:A3336"/>
